--- a/Planilhas/Planilha Sprint.xlsx
+++ b/Planilhas/Planilha Sprint.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>INCREMENTO : MODELOS PRONTOS</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>(Saida de um dos integrantes)</t>
+  </si>
+  <si>
+    <t>SPRINT 4 SEMANAL</t>
+  </si>
+  <si>
+    <t>LLD , CSS DAS TELAS DE CADASTRO LOGIN</t>
+  </si>
+  <si>
+    <t>Detalhar Ferramenta</t>
+  </si>
+  <si>
+    <t>Produção de requisitos</t>
   </si>
 </sst>
 </file>
@@ -136,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +564,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Planilhas/Planilha Sprint.xlsx
+++ b/Planilhas/Planilha Sprint.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>INCREMENTO : MODELOS PRONTOS</t>
   </si>
@@ -97,6 +97,103 @@
   </si>
   <si>
     <t>Produção de requisitos</t>
+  </si>
+  <si>
+    <t>SPRINT 5 SEMANAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atualização da planilha </t>
+  </si>
+  <si>
+    <t>Preparação para apresentação teste</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - REUNIÃO </t>
+  </si>
+  <si>
+    <t>SLIDE, MODELO CONCEITUAL E AJUSTES</t>
+  </si>
+  <si>
+    <t>Discursão para decidir ordem de fala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opiniões Contrarias ao chegar na       decisão</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> N/A</t>
+    </r>
+  </si>
+  <si>
+    <t>SPRINT SEMANAL ANTES DA ENTREGA!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ENTREGA DE TODOS REQUISITOS</t>
+  </si>
+  <si>
+    <t>Preparação para apresentação do projeto arrumando detalhes.</t>
+  </si>
+  <si>
+    <t>Foco da Equipe e colaboração da equipe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -455,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +678,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Planilhas/Planilha Sprint.xlsx
+++ b/Planilhas/Planilha Sprint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>INCREMENTO : MODELOS PRONTOS</t>
   </si>
@@ -108,8 +108,122 @@
     <t>Preparação para apresentação teste</t>
   </si>
   <si>
+    <t xml:space="preserve">2 - REUNIÃO </t>
+  </si>
+  <si>
+    <t>SLIDE, MODELO CONCEITUAL E AJUSTES</t>
+  </si>
+  <si>
+    <t>Discursão para decidir ordem de fala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opiniões Contrarias ao chegar na       decisão</t>
+  </si>
+  <si>
+    <t>SPRINT SEMANAL ANTES DA ENTREGA!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ENTREGA DE TODOS REQUISITOS</t>
+  </si>
+  <si>
+    <t>Preparação para apresentação do projeto arrumando detalhes.</t>
+  </si>
+  <si>
+    <t>Foco da Equipe e colaboração da equipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Analiso os requisitos e propostas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Distribuição de elementos para sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Participação e opiniões divergentes</t>
+  </si>
+  <si>
+    <t>SPRINT 2 SEMANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ferramenta de Gestão </t>
+  </si>
+  <si>
+    <t>Produção"instantânea" de requisitos</t>
+  </si>
+  <si>
+    <t>SPRINT 3 SEMANA</t>
+  </si>
+  <si>
+    <t>APRESENTAÇÃO</t>
+  </si>
+  <si>
+    <t>SPRINT 4 SEMANA</t>
+  </si>
+  <si>
+    <t>Site, modelos do banco</t>
+  </si>
+  <si>
+    <t>Correção da ultima sprint</t>
+  </si>
+  <si>
+    <t>Entregaveis em dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trabalho Individual</t>
+  </si>
+  <si>
+    <t>Modelos do banco e  pagina do sites</t>
+  </si>
+  <si>
+    <t>Estudando scripts e back-end</t>
+  </si>
+  <si>
+    <t>Trabalho em equipe para suprir o conteudo</t>
+  </si>
+  <si>
+    <t>SPRINT 5 SEMANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divulgação de conhecimento tecnico para o grupo sobre a (api) </t>
+  </si>
+  <si>
+    <t>APRESENTAÇÃO DA SPRINT</t>
+  </si>
+  <si>
+    <t>Corrigindo fluxograma e analise de codigo</t>
+  </si>
+  <si>
+    <t>SPRINT 1 SEMANA</t>
+  </si>
+  <si>
+    <t>Tentativas dos integrantes e foco</t>
+  </si>
+  <si>
+    <t>Participação dos integrantes</t>
+  </si>
+  <si>
+    <t>3 - Reunião</t>
+  </si>
+  <si>
+    <t>SPRINT 6 SEMANA</t>
+  </si>
+  <si>
+    <t>Passando erros a limpo</t>
+  </si>
+  <si>
+    <t>Arrumando back-end para gerar graficos e logins</t>
+  </si>
+  <si>
+    <t>SPRINT 7 SEMANA</t>
+  </si>
+  <si>
+    <t>Help desk e manual</t>
+  </si>
+  <si>
+    <t>Detalhamento das Ferramentas</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">                                 </t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -124,76 +238,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N/A</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - REUNIÃO </t>
-  </si>
-  <si>
-    <t>SLIDE, MODELO CONCEITUAL E AJUSTES</t>
-  </si>
-  <si>
-    <t>Discursão para decidir ordem de fala</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Opiniões Contrarias ao chegar na       decisão</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> N/A</t>
-    </r>
-  </si>
-  <si>
-    <t>SPRINT SEMANAL ANTES DA ENTREGA!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ENTREGA DE TODOS REQUISITOS</t>
-  </si>
-  <si>
-    <t>Preparação para apresentação do projeto arrumando detalhes.</t>
-  </si>
-  <si>
-    <t>Foco da Equipe e colaboração da equipe</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N/A</t>
-    </r>
+    <t>SPRINT 8 SEMANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides </t>
   </si>
 </sst>
 </file>
@@ -245,32 +293,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,181 +593,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
